--- a/Simulations/SRIM_ProtonsVsFilters/DataAnalysis/Rev2_Mixed/ThinFilter_Analysis.xlsx
+++ b/Simulations/SRIM_ProtonsVsFilters/DataAnalysis/Rev2_Mixed/ThinFilter_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Documents\GitHub\xmm-newton\Simulations\SRIM_ProtonsVsFilters\DataAnalysis\Rev2_Mixed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CA6975-66E0-4A55-8D53-7040DA117523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6750C0C2-D57E-4200-82C7-C33AC182F433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9EDBC4B-5209-4052-BD5C-CBCCBA64D68C}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>SRIM SIMULATIONS</t>
   </si>
   <si>
-    <t>PROTONS VS THIN FILTER</t>
-  </si>
-  <si>
     <t>INPUT ANGLE = 0 DEG</t>
   </si>
   <si>
@@ -70,7 +67,10 @@
     <t>Error on mean energy loss [keV]</t>
   </si>
   <si>
-    <t>Number of transmitted ions [%]</t>
+    <t>Number of ions transmitted [%]</t>
+  </si>
+  <si>
+    <t>PROTONS VS THIN FILTERS</t>
   </si>
 </sst>
 </file>
@@ -78,8 +78,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -161,10 +161,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -226,7 +226,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" b="1"/>
-              <a:t>Protons vs thin filter of MOS camera on board XMM-Newton</a:t>
+              <a:t>Protons</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" b="1" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" b="1"/>
+              <a:t>vs thin filters of MOS cameras on board XMM-Newton</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -313,10 +321,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Foglio1!$E$6:$E$21</c:f>
+                <c:f>Foglio1!$E$6:$E$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="16"/>
+                  <c:ptCount val="18"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -330,50 +338,56 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.24718127150000002</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.88285242200000003</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.2963224479</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.4825999265000001</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.6108382428000001</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.7036329421</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.8209851455999999</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.9309646973999999</c:v>
+                    <c:v>1.1180000000000001</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.5977317903999999</c:v>
+                    <c:v>0.95499999999999996</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.3980195736999999</c:v>
+                    <c:v>0.8</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.2230535844000001</c:v>
+                    <c:v>0.64400000000000002</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.0962225785999999</c:v>
+                    <c:v>0.60199999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.57399999999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.54700000000000004</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Foglio1!$E$6:$E$21</c:f>
+                <c:f>Foglio1!$E$6:$E$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="16"/>
+                  <c:ptCount val="18"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -387,40 +401,46 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.24718127150000002</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.88285242200000003</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.2963224479</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.4825999265000001</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.6108382428000001</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.7036329421</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.8209851455999999</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.9309646973999999</c:v>
+                    <c:v>1.1180000000000001</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.5977317903999999</c:v>
+                    <c:v>0.95499999999999996</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.3980195736999999</c:v>
+                    <c:v>0.8</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.2230535844000001</c:v>
+                    <c:v>0.64400000000000002</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.0962225785999999</c:v>
+                    <c:v>0.60199999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.57399999999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.54700000000000004</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -441,68 +461,71 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$6:$A$21</c:f>
+              <c:f>Foglio1!$A$7:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>140</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>160</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>180</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>200</c:v>
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$C$6:$C$21</c:f>
+              <c:f>Foglio1!$C$7:$C$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -515,40 +538,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.357164233</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.0">
-                  <c:v>2.6321867539000001</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.2385814346999995</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.0">
-                  <c:v>13.5227</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.0">
-                  <c:v>21.121599999999997</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0">
-                  <c:v>29.877599999999997</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.0">
-                  <c:v>39.553400000000003</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.0">
-                  <c:v>60.666599999999995</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119.24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>83.081500000000005</c:v>
+                  <c:v>140.21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>105.97799999999999</c:v>
+                  <c:v>161.16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>128.77500000000001</c:v>
+                  <c:v>182.04</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>147.81700000000001</c:v>
+                  <c:v>207.57987510000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>233.49756719999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,7 +913,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" b="1"/>
-              <a:t>Protons vs thin filter of MOS camera on board XMM-Newton</a:t>
+              <a:t>Protons vs thin filters of MOS cameras on board XMM-Newton</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -974,10 +1000,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Foglio1!$H$6:$H$21</c:f>
+                <c:f>Foglio1!$H$6:$H$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="16"/>
+                  <c:ptCount val="18"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -991,50 +1017,56 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>27.435464263726367</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>15.887470213578856</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.4487866008349801</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6.1920504654335637</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>4.4903595558516169</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.4282037780180818</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2.7828798713138427</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.8885301100887997</c:v>
+                    <c:v>0.2454146341463414</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.0945938254831991</c:v>
+                    <c:v>0.16626803086212683</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.71263671149126617</c:v>
+                    <c:v>0.11291633977605016</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.48651461744041929</c:v>
+                    <c:v>7.5285182427401356E-2</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0.38699326071482837</c:v>
+                    <c:v>5.9393100417490692E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>4.8170140230515981E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3.8659206816780943E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Foglio1!$H$6:$H$21</c:f>
+                <c:f>Foglio1!$H$6:$H$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="16"/>
+                  <c:ptCount val="18"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -1048,40 +1080,46 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>27.435464263726367</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>15.887470213578856</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.4487866008349801</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6.1920504654335637</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>4.4903595558516169</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.4282037780180818</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2.7828798713138427</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.8885301100887997</c:v>
+                    <c:v>0.2454146341463414</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.0945938254831991</c:v>
+                    <c:v>0.16626803086212683</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.71263671149126617</c:v>
+                    <c:v>0.11291633977605016</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.48651461744041929</c:v>
+                    <c:v>7.5285182427401356E-2</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0.38699326071482837</c:v>
+                    <c:v>5.9393100417490692E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>4.8170140230515981E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3.8659206816780943E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1102,114 +1140,120 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$6:$A$21</c:f>
+              <c:f>Foglio1!$A$7:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>140</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>160</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>180</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>200</c:v>
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$G$6:$G$21</c:f>
+              <c:f>Foglio1!$G$7:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>1</c:v>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
-                  <c:v>39.642835767000001</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>47.367813246099999</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>52.761418565299998</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00">
-                  <c:v>56.4773</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>58.878399999999999</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>60.122399999999999</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>60.446599999999997</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00">
-                  <c:v>59.333400000000005</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>56.918499999999995</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>54.022000000000006</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>51.224999999999994</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>52.182999999999993</c:v>
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.789999999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.960000000000008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.42012489999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.502432800000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1426,7 +1470,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1549,7 +1593,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" b="1"/>
-              <a:t>Protons vs thin filter of MOS camera on board XMM-Newton</a:t>
+              <a:t>Protons vs thin filters of MOS cameras on board XMM-Newton</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1621,10 +1665,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Foglio1!$E$7:$E$21</c:f>
+                <c:f>Foglio1!$E$7:$E$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="15"/>
+                  <c:ptCount val="17"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -1635,50 +1679,56 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.24718127150000002</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.88285242200000003</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.2963224479</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.4825999265000001</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.6108382428000001</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.7036329421</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.8209851455999999</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.9309646973999999</c:v>
+                    <c:v>1.1180000000000001</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.5977317903999999</c:v>
+                    <c:v>0.95499999999999996</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.3980195736999999</c:v>
+                    <c:v>0.8</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.2230535844000001</c:v>
+                    <c:v>0.64400000000000002</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.0962225785999999</c:v>
+                    <c:v>0.60199999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.57399999999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.54700000000000004</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Foglio1!$E$7:$E$21</c:f>
+                <c:f>Foglio1!$E$7:$E$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="15"/>
+                  <c:ptCount val="17"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -1689,40 +1739,46 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.24718127150000002</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.88285242200000003</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.2963224479</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.4825999265000001</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.6108382428000001</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.7036329421</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.8209851455999999</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.9309646973999999</c:v>
+                    <c:v>1.1180000000000001</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.5977317903999999</c:v>
+                    <c:v>0.95499999999999996</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.3980195736999999</c:v>
+                    <c:v>0.8</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.2230535844000001</c:v>
+                    <c:v>0.64400000000000002</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.0962225785999999</c:v>
+                    <c:v>0.60199999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.57399999999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.54700000000000004</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1748,10 +1804,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Foglio1!$H$7:$H$21</c:f>
+                <c:f>Foglio1!$H$7:$H$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="15"/>
+                  <c:ptCount val="17"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -1762,50 +1818,56 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>27.435464263726367</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>15.887470213578856</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.4487866008349801</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.1920504654335637</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.4903595558516169</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.4282037780180818</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.7828798713138427</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.8885301100887997</c:v>
+                    <c:v>0.2454146341463414</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.0945938254831991</c:v>
+                    <c:v>0.16626803086212683</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.71263671149126617</c:v>
+                    <c:v>0.11291633977605016</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.48651461744041929</c:v>
+                    <c:v>7.5285182427401356E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.38699326071482837</c:v>
+                    <c:v>5.9393100417490692E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4.8170140230515981E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.8659206816780943E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Foglio1!$H$7:$H$21</c:f>
+                <c:f>Foglio1!$H$7:$H$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="15"/>
+                  <c:ptCount val="17"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -1816,40 +1878,46 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>27.435464263726367</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>15.887470213578856</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.4487866008349801</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.1920504654335637</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.4903595558516169</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.4282037780180818</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.7828798713138427</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.8885301100887997</c:v>
+                    <c:v>0.2454146341463414</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.0945938254831991</c:v>
+                    <c:v>0.16626803086212683</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.71263671149126617</c:v>
+                    <c:v>0.11291633977605016</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.48651461744041929</c:v>
+                    <c:v>7.5285182427401356E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.38699326071482837</c:v>
+                    <c:v>5.9393100417490692E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4.8170140230515981E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.8659206816780943E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1870,11 +1938,11 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$C$7:$C$25</c:f>
+              <c:f>Foglio1!$C$7:$C$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1884,62 +1952,56 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.357164233</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0">
-                  <c:v>2.6321867539000001</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2385814346999995</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.0">
-                  <c:v>13.5227</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.0">
-                  <c:v>21.121599999999997</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.0">
-                  <c:v>29.877599999999997</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0">
-                  <c:v>39.553400000000003</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.0">
-                  <c:v>60.666599999999995</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.081500000000005</c:v>
+                  <c:v>119.24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105.97799999999999</c:v>
+                  <c:v>140.21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>128.77500000000001</c:v>
+                  <c:v>161.16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>147.81700000000001</c:v>
+                  <c:v>182.04</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>207.57987510000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>207.58</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>233.49799999999999</c:v>
+                  <c:v>233.49756719999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$G$7:$G$25</c:f>
+              <c:f>Foglio1!$G$7:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1949,53 +2011,47 @@
                 <c:pt idx="2">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>39.642835767000001</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
-                  <c:v>47.367813246099999</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>52.761418565299998</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>56.4773</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00">
-                  <c:v>58.878399999999999</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>60.122399999999999</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>60.446599999999997</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>59.333400000000005</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00">
-                  <c:v>56.918499999999995</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>54.022000000000006</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>51.224999999999994</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>52.182999999999993</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>17.419999999999987</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>16.50200000000001</c:v>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.789999999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.960000000000008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.42012489999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.502432800000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3972,15 +4028,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3554</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>4583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4008,15 +4064,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>402</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>4296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1701421</xdr:colOff>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4044,16 +4100,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1005430</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4378,23 +4434,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FF5184-98A8-4C01-B982-DAA346D3A3E7}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4412,7 +4468,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4425,7 +4481,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4448,47 +4504,43 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="4">
         <f>B6/1000</f>
         <v>0</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="4">
         <f>D6/1000</f>
         <v>0</v>
@@ -4497,700 +4549,520 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" ref="G6:G23" si="0">A6-C6</f>
+        <f>A6-C6</f>
         <v>1</v>
       </c>
       <c r="H6" s="4">
         <f>F6*G6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6"/>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7:C23" si="0">B7/1000</f>
         <v>0</v>
       </c>
-      <c r="C7" s="4">
-        <f t="shared" ref="C7:C23" si="1">B7/1000</f>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4">
+        <f t="shared" ref="E7:E23" si="1">D7/1000</f>
         <v>0</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" ref="E7:E9" si="2">D7/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="0"/>
+      <c r="F7" s="5" t="e">
+        <f>E7/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" ref="G7:G21" si="2">A7-C7</f>
         <v>10</v>
       </c>
-      <c r="H7" s="6">
-        <f t="shared" ref="H7:H23" si="3">F7*G7</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
+      <c r="H7" s="8" t="e">
+        <f t="shared" ref="H7:H21" si="3">F7*G7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>20</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6"/>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="F8" s="5" t="e">
+        <f t="shared" ref="F8:F21" si="4">E8/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>30</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6"/>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="F9" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>40</v>
       </c>
-      <c r="B10" s="4">
-        <f>3571642330/10000000</f>
-        <v>357.16423300000002</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="6"/>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>0.357164233</v>
-      </c>
-      <c r="D10" s="7">
-        <f>2471812715/10000000</f>
-        <v>247.18127150000001</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" ref="E10:E21" si="4">D10/1000</f>
-        <v>0.24718127150000002</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" ref="F10:F23" si="5">(D10/B10)</f>
-        <v>0.69206613838065911</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="0"/>
-        <v>39.642835767000001</v>
-      </c>
-      <c r="H10" s="4">
-        <f>F10*G10</f>
-        <v>27.435464263726367</v>
-      </c>
-      <c r="I10" s="8">
-        <f>419/10000</f>
-        <v>4.19E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H10" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>50</v>
       </c>
-      <c r="B11" s="4">
-        <f>26321867539/10000000</f>
-        <v>2632.1867539</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="6"/>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
         <f t="shared" si="1"/>
-        <v>2.6321867539000001</v>
-      </c>
-      <c r="D11" s="7">
-        <f>8828524220/10000000</f>
-        <v>882.85242200000005</v>
-      </c>
-      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>0.88285242200000003</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="5"/>
-        <v>0.33540645271157715</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="0"/>
-        <v>47.367813246099999</v>
-      </c>
-      <c r="H11" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H11" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>15.887470213578856</v>
-      </c>
-      <c r="I11" s="8">
-        <f>7267/10000</f>
-        <v>0.72670000000000001</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>60</v>
       </c>
-      <c r="B12" s="4">
-        <f>72385814347/10000000</f>
-        <v>7238.5814346999996</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="6"/>
+      <c r="C12" s="8">
+        <f>B12/1000</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
         <f t="shared" si="1"/>
-        <v>7.2385814346999995</v>
-      </c>
-      <c r="D12" s="7">
-        <f>12963224479/10000000</f>
-        <v>1296.3224479</v>
-      </c>
-      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>1.2963224479</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="5"/>
-        <v>0.17908515081224968</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="0"/>
-        <v>52.761418565299998</v>
-      </c>
-      <c r="H12" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="H12" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>9.4487866008349801</v>
-      </c>
-      <c r="I12" s="8">
-        <f>9461/10000</f>
-        <v>0.94610000000000005</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>70</v>
       </c>
-      <c r="B13" s="4">
-        <f>135227000000/10000000</f>
-        <v>13522.7</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="6"/>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
         <f t="shared" si="1"/>
-        <v>13.5227</v>
-      </c>
-      <c r="D13" s="7">
-        <f>14825999265/10000000</f>
-        <v>1482.5999265</v>
-      </c>
-      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>1.4825999265000001</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="5"/>
-        <v>0.10963786274190805</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="0"/>
-        <v>56.4773</v>
-      </c>
-      <c r="H13" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="H13" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>6.1920504654335637</v>
-      </c>
-      <c r="I13" s="8">
-        <f>9845/10000</f>
-        <v>0.98450000000000004</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>80</v>
       </c>
-      <c r="B14" s="4">
-        <f>211216000000/10000000</f>
-        <v>21121.599999999999</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B14" s="6"/>
+      <c r="C14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
         <f t="shared" si="1"/>
-        <v>21.121599999999997</v>
-      </c>
-      <c r="D14" s="7">
-        <f>16108382428/10000000</f>
-        <v>1610.8382428</v>
-      </c>
-      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>1.6108382428000001</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="5"/>
-        <v>7.6264972483145219E-2</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="0"/>
-        <v>58.878399999999999</v>
-      </c>
-      <c r="H14" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H14" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>4.4903595558516169</v>
-      </c>
-      <c r="I14" s="8">
-        <f>9938/10000</f>
-        <v>0.99380000000000002</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>90</v>
       </c>
-      <c r="B15" s="4">
-        <f>298776000000/10000000</f>
-        <v>29877.599999999999</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="6"/>
+      <c r="C15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
         <f t="shared" si="1"/>
-        <v>29.877599999999997</v>
-      </c>
-      <c r="D15" s="7">
-        <f>17036329421/10000000</f>
-        <v>1703.6329421</v>
-      </c>
-      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>1.7036329421</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="5"/>
-        <v>5.7020408001312022E-2</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="0"/>
-        <v>60.122399999999999</v>
-      </c>
-      <c r="H15" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H15" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>3.4282037780180818</v>
-      </c>
-      <c r="I15" s="8">
-        <f>9972/10000</f>
-        <v>0.99719999999999998</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>100</v>
       </c>
-      <c r="B16" s="4">
-        <f>395534000000/10000000</f>
-        <v>39553.4</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="6"/>
+      <c r="C16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
         <f t="shared" si="1"/>
-        <v>39.553400000000003</v>
-      </c>
-      <c r="D16" s="7">
-        <f>18209851456/10000000</f>
-        <v>1820.9851455999999</v>
-      </c>
-      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>1.8209851455999999</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="5"/>
-        <v>4.6038650169138426E-2</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="0"/>
-        <v>60.446599999999997</v>
-      </c>
-      <c r="H16" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H16" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>2.7828798713138427</v>
-      </c>
-      <c r="I16" s="8">
-        <f>9999/10000</f>
-        <v>0.99990000000000001</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <f>A16+20</f>
         <v>120</v>
       </c>
-      <c r="B17" s="4">
-        <f>606666000000/10000000</f>
-        <v>60666.6</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="6">
+        <v>98404.78</v>
+      </c>
+      <c r="C17" s="8">
+        <v>98.4</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1118</v>
+      </c>
+      <c r="E17" s="8">
         <f t="shared" si="1"/>
-        <v>60.666599999999995</v>
-      </c>
-      <c r="D17" s="7">
-        <f>19309646974/10000000</f>
-        <v>1930.9646974</v>
-      </c>
-      <c r="E17" s="6">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="4"/>
-        <v>1.9309646973999999</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="5"/>
-        <v>3.1829123395739997E-2</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="0"/>
-        <v>59.333400000000005</v>
-      </c>
-      <c r="H17" s="4">
+        <v>1.1361788617886179E-2</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="2"/>
+        <v>21.599999999999994</v>
+      </c>
+      <c r="H17" s="8">
         <f t="shared" si="3"/>
-        <v>1.8885301100887997</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" ref="I17:I25" si="6">1000/1000</f>
-        <v>1</v>
-      </c>
+        <v>0.2454146341463414</v>
+      </c>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f>A17+20</f>
         <v>140</v>
       </c>
-      <c r="B18" s="4">
-        <f>830815000000/10000000</f>
-        <v>83081.5</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="6">
+        <v>119239.55</v>
+      </c>
+      <c r="C18" s="8">
+        <v>119.24</v>
+      </c>
+      <c r="D18" s="6">
+        <v>955</v>
+      </c>
+      <c r="E18" s="8">
         <f t="shared" si="1"/>
-        <v>83.081500000000005</v>
-      </c>
-      <c r="D18" s="7">
-        <f>15977317904/10000000</f>
-        <v>1597.7317903999999</v>
-      </c>
-      <c r="E18" s="4">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="F18" s="5">
         <f t="shared" si="4"/>
-        <v>1.5977317903999999</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="5"/>
-        <v>1.9230897256308565E-2</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="0"/>
-        <v>56.918499999999995</v>
-      </c>
-      <c r="H18" s="4">
+        <v>8.009057363300905E-3</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="2"/>
+        <v>20.760000000000005</v>
+      </c>
+      <c r="H18" s="8">
         <f t="shared" si="3"/>
-        <v>1.0945938254831991</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+        <v>0.16626803086212683</v>
+      </c>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f>A18+20</f>
         <v>160</v>
       </c>
-      <c r="B19" s="4">
-        <f>1059780000000/10000000</f>
-        <v>105978</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="6">
+        <v>140210.76999999999</v>
+      </c>
+      <c r="C19" s="8">
+        <v>140.21</v>
+      </c>
+      <c r="D19" s="6">
+        <v>800</v>
+      </c>
+      <c r="E19" s="8">
         <f t="shared" si="1"/>
-        <v>105.97799999999999</v>
-      </c>
-      <c r="D19" s="7">
-        <f>13980195737/10000000</f>
-        <v>1398.0195736999999</v>
-      </c>
-      <c r="E19" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F19" s="5">
         <f t="shared" si="4"/>
-        <v>1.3980195736999999</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="5"/>
-        <v>1.3191601782445413E-2</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="0"/>
-        <v>54.022000000000006</v>
-      </c>
-      <c r="H19" s="4">
+        <v>5.7057271236003139E-3</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="2"/>
+        <v>19.789999999999992</v>
+      </c>
+      <c r="H19" s="8">
         <f t="shared" si="3"/>
-        <v>0.71263671149126617</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+        <v>0.11291633977605016</v>
+      </c>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f>A19+20</f>
         <v>180</v>
       </c>
-      <c r="B20" s="4">
-        <f>1287750000000/10000000</f>
-        <v>128775</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="6">
+        <v>161160.51</v>
+      </c>
+      <c r="C20" s="8">
+        <v>161.16</v>
+      </c>
+      <c r="D20" s="6">
+        <v>644</v>
+      </c>
+      <c r="E20" s="8">
         <f t="shared" si="1"/>
-        <v>128.77500000000001</v>
-      </c>
-      <c r="D20" s="7">
-        <f>12230535844/10000000</f>
-        <v>1223.0535844000001</v>
-      </c>
-      <c r="E20" s="4">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F20" s="5">
         <f t="shared" si="4"/>
-        <v>1.2230535844000001</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="5"/>
-        <v>9.4976011213356634E-3</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="0"/>
-        <v>51.224999999999994</v>
-      </c>
-      <c r="H20" s="4">
+        <v>3.9960287912633409E-3</v>
+      </c>
+      <c r="G20" s="8">
+        <f>A20-C20</f>
+        <v>18.840000000000003</v>
+      </c>
+      <c r="H20" s="8">
         <f t="shared" si="3"/>
-        <v>0.48651461744041929</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+        <v>7.5285182427401356E-2</v>
+      </c>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f>A20+20</f>
         <v>200</v>
       </c>
-      <c r="B21" s="4">
-        <f>1478170000000/10000000</f>
-        <v>147817</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="6">
+        <v>182044.45</v>
+      </c>
+      <c r="C21" s="8">
+        <v>182.04</v>
+      </c>
+      <c r="D21" s="6">
+        <v>602</v>
+      </c>
+      <c r="E21" s="8">
         <f t="shared" si="1"/>
-        <v>147.81700000000001</v>
-      </c>
-      <c r="D21" s="7">
-        <f>10962225786/10000000</f>
-        <v>1096.2225785999999</v>
-      </c>
-      <c r="E21" s="4">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="F21" s="5">
         <f t="shared" si="4"/>
-        <v>1.0962225785999999</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="5"/>
-        <v>7.4160791965741414E-3</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="0"/>
-        <v>52.182999999999993</v>
-      </c>
-      <c r="H21" s="4">
+        <v>3.3069655020874535E-3</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="2"/>
+        <v>17.960000000000008</v>
+      </c>
+      <c r="H21" s="8">
         <f t="shared" si="3"/>
-        <v>0.38699326071482837</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+        <v>5.9393100417490692E-2</v>
+      </c>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>210</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4">
-        <f t="shared" ref="C22:C23" si="7">B22/1000</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="4">
-        <f t="shared" ref="E22:E23" si="8">D22/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="5" t="e">
-        <f t="shared" ref="F22:F23" si="9">(D22/B22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" ref="G22:G23" si="10">A22-C22</f>
-        <v>210</v>
-      </c>
-      <c r="H22" s="4" t="e">
-        <f t="shared" ref="H22:H23" si="11">F22*G22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B22" s="6">
+        <f>2075798.751/10</f>
+        <v>207579.8751</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="0"/>
+        <v>207.57987510000001</v>
+      </c>
+      <c r="D22" s="6">
+        <v>574</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="1"/>
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="5">E22/C22</f>
+        <v>2.7652006232467374E-3</v>
+      </c>
+      <c r="G22" s="8">
+        <f>A22-C22</f>
+        <v>17.42012489999999</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" ref="H22:H23" si="6">F22*G22</f>
+        <v>4.8170140230515981E-2</v>
+      </c>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>220</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="5" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="10"/>
-        <v>220</v>
-      </c>
-      <c r="H23" s="4" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="8">
+        <v>250</v>
+      </c>
+      <c r="B23" s="6">
+        <f>2334975.672/10</f>
+        <v>233497.56719999999</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="0"/>
+        <v>233.49756719999999</v>
+      </c>
+      <c r="D23" s="6">
+        <v>547</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="1"/>
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="5"/>
+        <v>2.3426368272671241E-3</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" ref="G23" si="7">A23-C23</f>
+        <v>16.502432800000008</v>
+      </c>
+      <c r="H23" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>225</v>
-      </c>
-      <c r="B24" s="4">
-        <f>2075800000000/10000000</f>
-        <v>207580</v>
-      </c>
-      <c r="C24" s="4">
-        <f>B24/1000</f>
-        <v>207.58</v>
-      </c>
-      <c r="D24" s="7">
-        <f>5736732397/10000000</f>
-        <v>573.67323969999995</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" ref="E24:E25" si="12">D24/2000</f>
-        <v>0.28683661984999997</v>
-      </c>
-      <c r="F24" s="5">
-        <f>(D24/B24)</f>
-        <v>2.7636248179015318E-3</v>
-      </c>
-      <c r="G24" s="4">
-        <f>A24-C24</f>
-        <v>17.419999999999987</v>
-      </c>
-      <c r="H24" s="4">
-        <f>F24*G24</f>
-        <v>4.8142344327844651E-2</v>
-      </c>
-      <c r="I24" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>250</v>
-      </c>
-      <c r="B25" s="4">
-        <f>2334980000000/10000000</f>
-        <v>233498</v>
-      </c>
-      <c r="C25" s="4">
-        <f>B25/1000</f>
-        <v>233.49799999999999</v>
-      </c>
-      <c r="D25" s="7">
-        <f>5474761314/10000000</f>
-        <v>547.47613139999999</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="12"/>
-        <v>0.27373806569999998</v>
-      </c>
-      <c r="F25" s="5">
-        <f>(D25/B25)</f>
-        <v>2.3446716091786654E-3</v>
-      </c>
-      <c r="G25" s="4">
-        <f>A25-C25</f>
-        <v>16.50200000000001</v>
-      </c>
-      <c r="H25" s="4">
-        <f>F25*G25</f>
-        <v>3.8691770894666362E-2</v>
-      </c>
-      <c r="I25" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+        <v>3.8659206816780943E-2</v>
+      </c>
+      <c r="I23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5200,9 +5072,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D10" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Simulations/SRIM_ProtonsVsFilters/DataAnalysis/Rev2_Mixed/ThinFilter_Analysis.xlsx
+++ b/Simulations/SRIM_ProtonsVsFilters/DataAnalysis/Rev2_Mixed/ThinFilter_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Documents\GitHub\xmm-newton\Simulations\SRIM_ProtonsVsFilters\DataAnalysis\Rev2_Mixed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6750C0C2-D57E-4200-82C7-C33AC182F433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6921126-E9FE-455D-B1B2-7B07794EE3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9EDBC4B-5209-4052-BD5C-CBCCBA64D68C}"/>
   </bookViews>
@@ -329,34 +329,34 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.3056097445</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.80427841249999998</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>0.9406773249</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>0.92068617019999999</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>1.053987142</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>0.96627441959999993</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>1.2317515479999999</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>1.01713531</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>0.77760495139999997</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>0.87851535430000005</c:v>
                   </c:pt>
                   <c:pt idx="11">
                     <c:v>1.1180000000000001</c:v>
@@ -392,34 +392,34 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.3056097445</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.80427841249999998</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>0.9406773249</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>0.92068617019999999</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>1.053987142</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>0.96627441959999993</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>1.2317515479999999</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>1.01713531</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>0.77760495139999997</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>0.87851535430000005</c:v>
                   </c:pt>
                   <c:pt idx="11">
                     <c:v>1.1180000000000001</c:v>
@@ -526,34 +526,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>0.63533932839999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.669453528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12.53268008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>20.41206305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>28.94192649</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>38.011640620000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>47.403297030000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>57.116167619999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>67.708163709999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>77.806264809999988</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>98.4</c:v>
@@ -1008,34 +1008,34 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>4.5045716946000951</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>2.0329559294974144</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>1.3110612950010037</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>0.88351395978147196</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>0.76687841503915055</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>0.55895480572039868</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>0.58716430305214329</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>0.40751953276481645</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>0.25601406573579943</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>0.2505908384279274</c:v>
                   </c:pt>
                   <c:pt idx="11">
                     <c:v>0.2454146341463414</c:v>
@@ -1071,34 +1071,34 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>4.5045716946000951</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>2.0329559294974144</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>1.3110612950010037</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>0.88351395978147196</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>0.76687841503915055</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>0.55895480572039868</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>0.58716430305214329</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>0.40751953276481645</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>0.25601406573579943</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>0.2505908384279274</c:v>
                   </c:pt>
                   <c:pt idx="11">
                     <c:v>0.2454146341463414</c:v>
@@ -1205,34 +1205,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9.3646606715999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>14.330546472</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>17.467319920000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>19.58793695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>21.05807351</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>21.988359379999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>22.596702969999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>22.883832380000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>22.291836290000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>22.193735190000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>21.599999999999994</c:v>
@@ -1670,34 +1670,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="17"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.3056097445</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.80427841249999998</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.9406773249</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>0.92068617019999999</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>1.053987142</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>0.96627441959999993</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>1.2317515479999999</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>1.01713531</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>0.77760495139999997</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>0.87851535430000005</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>1.1180000000000001</c:v>
@@ -1730,34 +1730,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="17"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.3056097445</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.80427841249999998</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.9406773249</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>0.92068617019999999</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>1.053987142</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>0.96627441959999993</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>1.2317515479999999</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>1.01713531</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>0.77760495139999997</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>0.87851535430000005</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>1.1180000000000001</c:v>
@@ -1809,34 +1809,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="17"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>4.5045716946000951</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>2.0329559294974144</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>1.3110612950010037</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>0.88351395978147196</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>0.76687841503915055</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>0.55895480572039868</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>0.58716430305214329</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>0.40751953276481645</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>0.25601406573579943</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>0.2505908384279274</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>0.2454146341463414</c:v>
@@ -1869,34 +1869,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="17"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>4.5045716946000951</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>2.0329559294974144</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>1.3110612950010037</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>0.88351395978147196</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>0.76687841503915055</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>0.55895480572039868</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>0.58716430305214329</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>0.40751953276481645</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>0.25601406573579943</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>0.2505908384279274</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>0.2454146341463414</c:v>
@@ -1943,34 +1943,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>0.63533932839999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.669453528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12.53268008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>20.41206305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>28.94192649</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>38.011640620000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>47.403297030000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>57.116167619999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>67.708163709999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>77.806264809999988</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>98.4</c:v>
@@ -2003,34 +2003,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9.3646606715999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>14.330546472</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>17.467319920000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>19.58793695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>21.05807351</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>21.988359379999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>22.596702969999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>22.883832380000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>22.291836290000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>22.193735190000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>21.599999999999994</c:v>
@@ -4437,7 +4437,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4535,12 +4535,16 @@
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
       <c r="C6" s="4">
         <f>B6/1000</f>
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
       <c r="E6" s="4">
         <f>D6/1000</f>
         <v>0</v>
@@ -4556,287 +4560,349 @@
         <f>F6*G6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>10</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6">
+        <v>635.3393284</v>
+      </c>
       <c r="C7" s="4">
         <f t="shared" ref="C7:C23" si="0">B7/1000</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>0.63533932839999996</v>
+      </c>
+      <c r="D7" s="6">
+        <v>305.60974449999998</v>
+      </c>
       <c r="E7" s="4">
         <f t="shared" ref="E7:E23" si="1">D7/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="e">
+        <v>0.3056097445</v>
+      </c>
+      <c r="F7" s="5">
         <f>E7/C7</f>
-        <v>#DIV/0!</v>
+        <v>0.48101814391000958</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" ref="G7:G21" si="2">A7-C7</f>
-        <v>10</v>
-      </c>
-      <c r="H7" s="8" t="e">
+        <v>9.3646606715999994</v>
+      </c>
+      <c r="H7" s="8">
         <f t="shared" ref="H7:H21" si="3">F7*G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>4.5045716946000951</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.36009999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>20</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6">
+        <v>5669.453528</v>
+      </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>5.669453528</v>
+      </c>
+      <c r="D8" s="6">
+        <v>804.27841249999994</v>
+      </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="e">
+        <v>0.80427841249999998</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" ref="F8:F21" si="4">E8/C8</f>
-        <v>#DIV/0!</v>
+        <v>0.14186171709987072</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H8" s="8" t="e">
+        <v>14.330546472</v>
+      </c>
+      <c r="H8" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>2.0329559294974144</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.96860000000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>30</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6">
+        <v>12532.68008</v>
+      </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>12.53268008</v>
+      </c>
+      <c r="D9" s="6">
+        <v>940.67732490000003</v>
+      </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5" t="e">
+        <v>0.9406773249</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>7.5057953996700122E-2</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="H9" s="8" t="e">
+        <v>17.467319920000001</v>
+      </c>
+      <c r="H9" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>1.3110612950010037</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.99370000000000003</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>40</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6">
+        <v>20412.063050000001</v>
+      </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>20.41206305</v>
+      </c>
+      <c r="D10" s="6">
+        <v>920.68617019999999</v>
+      </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="e">
+        <v>0.92068617019999999</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.5105003249536799E-2</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="H10" s="8" t="e">
+        <v>19.58793695</v>
+      </c>
+      <c r="H10" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>0.88351395978147196</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.99629999999999996</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>50</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6">
+        <v>28941.926490000002</v>
+      </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>28.94192649</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1053.9871419999999</v>
+      </c>
       <c r="E11" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="5" t="e">
+        <v>1.053987142</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.6417311140783011E-2</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="H11" s="8" t="e">
+        <v>21.05807351</v>
+      </c>
+      <c r="H11" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>0.76687841503915055</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.99870000000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>60</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6">
+        <v>38011.640619999998</v>
+      </c>
       <c r="C12" s="8">
         <f>B12/1000</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>38.011640620000001</v>
+      </c>
+      <c r="D12" s="6">
+        <v>966.27441959999999</v>
+      </c>
       <c r="E12" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="5" t="e">
+        <v>0.96627441959999993</v>
+      </c>
+      <c r="F12" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.542048708867331E-2</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H12" s="8" t="e">
+        <v>21.988359379999999</v>
+      </c>
+      <c r="H12" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>0.55895480572039868</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.99890000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>70</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6">
+        <v>47403.297030000002</v>
+      </c>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>47.403297030000004</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1231.751548</v>
+      </c>
       <c r="E13" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="5" t="e">
+        <v>1.2317515479999999</v>
+      </c>
+      <c r="F13" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.598451215788776E-2</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="H13" s="8" t="e">
+        <v>22.596702969999996</v>
+      </c>
+      <c r="H13" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>0.58716430305214329</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.99970000000000003</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>80</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6">
+        <v>57116.16762</v>
+      </c>
       <c r="C14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>57.116167619999999</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1017.13531</v>
+      </c>
       <c r="E14" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="5" t="e">
+        <v>1.01713531</v>
+      </c>
+      <c r="F14" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.7808185534560206E-2</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="H14" s="8" t="e">
+        <v>22.883832380000001</v>
+      </c>
+      <c r="H14" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>0.40751953276481645</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.99980000000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>90</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6">
+        <v>67708.163709999993</v>
+      </c>
       <c r="C15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>67.708163709999994</v>
+      </c>
+      <c r="D15" s="6">
+        <v>777.6049514</v>
+      </c>
       <c r="E15" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="5" t="e">
+        <v>0.77760495139999997</v>
+      </c>
+      <c r="F15" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.1484655745953327E-2</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="H15" s="8" t="e">
+        <v>22.291836290000006</v>
+      </c>
+      <c r="H15" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>0.25601406573579943</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.99990000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>100</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="6">
+        <v>77806.264809999993</v>
+      </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>77.806264809999988</v>
+      </c>
+      <c r="D16" s="6">
+        <v>878.51535430000001</v>
+      </c>
       <c r="E16" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="e">
+        <v>0.87851535430000005</v>
+      </c>
+      <c r="F16" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.1291061927279274E-2</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H16" s="8" t="e">
+        <v>22.193735190000012</v>
+      </c>
+      <c r="H16" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="7"/>
+        <v>0.2505908384279274</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -4868,7 +4934,9 @@
         <f t="shared" si="3"/>
         <v>0.2454146341463414</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -4900,7 +4968,9 @@
         <f t="shared" si="3"/>
         <v>0.16626803086212683</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -4932,7 +5002,9 @@
         <f t="shared" si="3"/>
         <v>0.11291633977605016</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -4964,7 +5036,9 @@
         <f t="shared" si="3"/>
         <v>7.5285182427401356E-2</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -4996,7 +5070,9 @@
         <f t="shared" si="3"/>
         <v>5.9393100417490692E-2</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -5029,7 +5105,9 @@
         <f t="shared" ref="H22:H23" si="6">F22*G22</f>
         <v>4.8170140230515981E-2</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -5062,7 +5140,9 @@
         <f t="shared" si="6"/>
         <v>3.8659206816780943E-2</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Simulations/SRIM_ProtonsVsFilters/DataAnalysis/Rev2_Mixed/ThinFilter_Analysis.xlsx
+++ b/Simulations/SRIM_ProtonsVsFilters/DataAnalysis/Rev2_Mixed/ThinFilter_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Documents\GitHub\xmm-newton\Simulations\SRIM_ProtonsVsFilters\DataAnalysis\Rev2_Mixed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6921126-E9FE-455D-B1B2-7B07794EE3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B13CB03-E1AE-42B6-A1A8-BAA81F0D5EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9EDBC4B-5209-4052-BD5C-CBCCBA64D68C}"/>
   </bookViews>
